--- a/tests/resources/test_master_4_2016_dcas.xlsx
+++ b/tests/resources/test_master_4_2016_dcas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">Re-baseline HMT benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DfT Group</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,6 +685,11 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="1047722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/test_master_4_2016_dcas.xlsx
+++ b/tests/resources/test_master_4_2016_dcas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">DfT Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -689,6 +692,11 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="1047722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
